--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1722582.342755904</v>
+        <v>-1725141.613323459</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>41.12791999868531</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>181.6659357711174</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
-        <v>295.0640301736143</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>43.2945117796236</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9987361002815</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0457926480648</v>
+        <v>35.33677203894187</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.95340549104682</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.1172987294701</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
         <v>286.2129282631967</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.3299650706227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>338.8429613941673</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>74.04624242996582</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>97.27949743629762</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>248.7853243264537</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>91.88021536100179</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>336.9049854834693</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>69.51608747328031</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>158.2989700980699</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701352</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>90.14863908058103</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>125.8135405258572</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>22.65115569188751</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>234.2545358525715</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>12.74007641194065</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>151.6499090771558</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>19.91555826189122</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0347892581642</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.43437620021282</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428165</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012167</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977196</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>118.4437570891989</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695436</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>36.43062059490515</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053461</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
         <v>56.98118882652581</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
@@ -3955,16 +3955,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1570.750161898294</v>
+        <v>1845.99000669381</v>
       </c>
       <c r="C2" t="n">
-        <v>1201.787644957882</v>
+        <v>1477.027489753398</v>
       </c>
       <c r="D2" t="n">
-        <v>1160.244291423857</v>
+        <v>1118.761791146648</v>
       </c>
       <c r="E2" t="n">
-        <v>774.4560388256127</v>
+        <v>935.260845923297</v>
       </c>
       <c r="F2" t="n">
-        <v>363.4701340360051</v>
+        <v>524.2749411336894</v>
       </c>
       <c r="G2" t="n">
-        <v>363.4701340360051</v>
+        <v>109.1574891935902</v>
       </c>
       <c r="H2" t="n">
-        <v>65.42565911316235</v>
+        <v>109.1574891935902</v>
       </c>
       <c r="I2" t="n">
         <v>65.42565911316235</v>
@@ -4331,7 +4331,7 @@
         <v>250.5613272725632</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183951</v>
+        <v>578.7702206183949</v>
       </c>
       <c r="L2" t="n">
         <v>1022.844136887445</v>
@@ -4352,28 +4352,28 @@
         <v>3215.036478301002</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658117</v>
+        <v>3271.282955658118</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007347</v>
+        <v>3159.966809007348</v>
       </c>
       <c r="T2" t="n">
-        <v>2953.792066077313</v>
+        <v>2953.792066077314</v>
       </c>
       <c r="U2" t="n">
-        <v>2700.257989208342</v>
+        <v>2953.792066077314</v>
       </c>
       <c r="V2" t="n">
-        <v>2700.257989208342</v>
+        <v>2622.729178733744</v>
       </c>
       <c r="W2" t="n">
-        <v>2347.489333938227</v>
+        <v>2622.729178733744</v>
       </c>
       <c r="X2" t="n">
-        <v>2347.489333938227</v>
+        <v>2622.729178733744</v>
       </c>
       <c r="Y2" t="n">
-        <v>1957.350001962416</v>
+        <v>2232.589846757932</v>
       </c>
     </row>
     <row r="3">
@@ -4419,13 +4419,13 @@
         <v>1194.197926366258</v>
       </c>
       <c r="N3" t="n">
-        <v>1689.257302559075</v>
+        <v>1661.583283102522</v>
       </c>
       <c r="O3" t="n">
-        <v>2094.603797632936</v>
+        <v>2066.929778176383</v>
       </c>
       <c r="P3" t="n">
-        <v>2400.597029664691</v>
+        <v>2372.923010208138</v>
       </c>
       <c r="Q3" t="n">
         <v>2555.226205362918</v>
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>549.9979585002956</v>
+        <v>959.3046253927697</v>
       </c>
       <c r="C4" t="n">
-        <v>381.0617755723886</v>
+        <v>790.3684424648628</v>
       </c>
       <c r="D4" t="n">
-        <v>381.0617755723886</v>
+        <v>640.2518030525271</v>
       </c>
       <c r="E4" t="n">
-        <v>233.1486819899955</v>
+        <v>492.3387094701341</v>
       </c>
       <c r="F4" t="n">
-        <v>233.1486819899955</v>
+        <v>345.4487619722238</v>
       </c>
       <c r="G4" t="n">
-        <v>65.42565911316235</v>
+        <v>309.7550528419795</v>
       </c>
       <c r="H4" t="n">
-        <v>65.42565911316235</v>
+        <v>163.3583919324016</v>
       </c>
       <c r="I4" t="n">
         <v>65.42565911316235</v>
       </c>
       <c r="J4" t="n">
-        <v>109.1495242182614</v>
+        <v>109.1495242182615</v>
       </c>
       <c r="K4" t="n">
-        <v>310.8381027401522</v>
+        <v>310.8381027401521</v>
       </c>
       <c r="L4" t="n">
-        <v>624.4564789039123</v>
+        <v>624.4564789039122</v>
       </c>
       <c r="M4" t="n">
-        <v>965.5122071220436</v>
+        <v>965.5122071220435</v>
       </c>
       <c r="N4" t="n">
-        <v>1303.893008842036</v>
+        <v>1303.893008842035</v>
       </c>
       <c r="O4" t="n">
         <v>1600.426152235784</v>
@@ -4513,25 +4513,25 @@
         <v>1906.594412149534</v>
       </c>
       <c r="S4" t="n">
-        <v>1714.55673666522</v>
+        <v>1906.594412149534</v>
       </c>
       <c r="T4" t="n">
-        <v>1714.55673666522</v>
+        <v>1684.741546371519</v>
       </c>
       <c r="U4" t="n">
-        <v>1425.452768722598</v>
+        <v>1395.637578428896</v>
       </c>
       <c r="V4" t="n">
-        <v>1170.768280516711</v>
+        <v>1140.953090223009</v>
       </c>
       <c r="W4" t="n">
-        <v>881.3511104797499</v>
+        <v>1140.953090223009</v>
       </c>
       <c r="X4" t="n">
-        <v>653.3615595817325</v>
+        <v>1140.953090223009</v>
       </c>
       <c r="Y4" t="n">
-        <v>549.9979585002956</v>
+        <v>1140.953090223009</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2329.16735763708</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1960.204840696669</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,22 +4565,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3250.811637336477</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3044.8338897207</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883006</v>
+        <v>2791.303412994536</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883006</v>
+        <v>2791.303412994536</v>
       </c>
       <c r="W5" t="n">
-        <v>2719.306689612892</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="X5" t="n">
-        <v>2719.306689612892</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y5" t="n">
-        <v>2329.16735763708</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4647,10 +4647,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.7237329438971</v>
+        <v>628.5134590629166</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>459.5772761350097</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W7" t="n">
-        <v>1172.713283841914</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="X7" t="n">
-        <v>944.7237329438971</v>
+        <v>1030.954503036686</v>
       </c>
       <c r="Y7" t="n">
-        <v>944.7237329438971</v>
+        <v>810.1619238931563</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1771.429619686767</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1771.429619686767</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1413.163921080016</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1027.375668481772</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>616.3897636921645</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>201.3173135371609</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609169</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883006</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>3072.075344883006</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1771.429619686767</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.4548862703364</v>
+        <v>917.616325937273</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>748.6801430093661</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300937</v>
+        <v>598.5635035970304</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>450.6504100146373</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.880257078837</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1196.77739020448</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>942.0929019985934</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W10" t="n">
-        <v>942.0929019985934</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X10" t="n">
-        <v>714.1033511005761</v>
+        <v>1320.057369911043</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.1033511005761</v>
+        <v>1099.264790767513</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778173</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778173</v>
+        <v>853.5941094450257</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654816</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830883</v>
+        <v>555.5643764502968</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851781</v>
+        <v>408.6744289523865</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2069.978161118015</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1780.902934462212</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V13" t="n">
-        <v>1526.218446256325</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W13" t="n">
-        <v>1236.801276219365</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X13" t="n">
-        <v>1008.811725321347</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y13" t="n">
-        <v>788.0191461778173</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="14">
@@ -5282,16 +5282,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,13 +5358,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8178837532262</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532262</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>283.8927175774227</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>116.6966182923027</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.665648661974</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.248478625013</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.258927726996</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.4663485834659</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>710.248605371872</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135298</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856229</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>248.3972582582391</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>106.6854271004372</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5677,22 +5677,22 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.1315533873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1654.485273605118</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2206.395003844405</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.899304487669</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597622</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474265</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>113.9333885650335</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>113.9333885650335</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>113.9333885650335</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>113.9333885650335</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179088</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>788.0191461778177</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778177</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654819</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830888</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851784</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154064</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6260,10 +6260,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135294</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856225</v>
+        <v>344.9174178121637</v>
       </c>
       <c r="D28" t="n">
-        <v>550.6376870732868</v>
+        <v>194.800778399828</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.800778399828</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.800778399828</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>194.800778399828</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1568.745695178747</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1279.328525141786</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1051.338974243769</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327653</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048584</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925227</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663005</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345477</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6941,7 +6941,7 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793924</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7081,37 +7081,37 @@
         <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380734</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7166,43 +7166,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192855</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311174</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793924</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,10 +7330,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,10 +7363,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239595</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718727</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7588,31 +7588,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,7 +7722,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438179</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>27.95355500661958</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>27.95355500661995</v>
       </c>
       <c r="R3" t="n">
         <v>1.622913276780281</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>313.5551216219976</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>200.2644343011444</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9662774206981</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
-        <v>43.2945117796236</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,13 +22601,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>130.7090206091229</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104682</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,10 +22753,10 @@
         <v>89.83072347163693</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.1172987294701</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6343371202345</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>116.2546882814721</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.37549921168781</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462227</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>91.59190980143109</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.6435571543364</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>17.88310747125652</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>68.52575990662488</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>134.8730892594352</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>61.35027805667431</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>65.54986409393058</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.39760398172447</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194224</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>121.5862749664519</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.6938862346291</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>110.003342051664</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26320,13 +26320,13 @@
         <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
-        <v>121071.9899535009</v>
+        <v>121071.989953501</v>
       </c>
       <c r="F2" t="n">
         <v>121071.9899535009</v>
       </c>
       <c r="G2" t="n">
-        <v>121071.989953501</v>
+        <v>121071.9899535009</v>
       </c>
       <c r="H2" t="n">
         <v>121071.9899535009</v>
@@ -26366,13 +26366,13 @@
         <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074552</v>
+        <v>14479.05232074569</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>213977.8894125531</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022639</v>
+        <v>3495.241841022551</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13002.0861874262</v>
+        <v>13002.08618742621</v>
       </c>
       <c r="C4" t="n">
         <v>91573.95495316945</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316949</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26430,31 +26430,31 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
+        <v>12386.92018181814</v>
+      </c>
+      <c r="H4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12386.92018181814</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="L4" t="n">
+        <v>20377.77944491159</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20377.77944491158</v>
+      </c>
+      <c r="N4" t="n">
+        <v>20377.77944491158</v>
+      </c>
+      <c r="O4" t="n">
         <v>20377.7794449116</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20377.77944491167</v>
-      </c>
-      <c r="N4" t="n">
-        <v>20377.77944491157</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20377.77944491161</v>
       </c>
       <c r="P4" t="n">
         <v>20377.7794449116</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1331831.974635152</v>
+        <v>-1332192.057650869</v>
       </c>
       <c r="C6" t="n">
-        <v>-90830.6823556657</v>
+        <v>-90830.68235566591</v>
       </c>
       <c r="D6" t="n">
         <v>-76351.63003492024</v>
       </c>
       <c r="E6" t="n">
-        <v>-317849.9218595798</v>
+        <v>-317884.6597850152</v>
       </c>
       <c r="F6" t="n">
-        <v>7562.539947775658</v>
+        <v>7527.80202233998</v>
       </c>
       <c r="G6" t="n">
-        <v>7562.539947775716</v>
+        <v>7527.802022339922</v>
       </c>
       <c r="H6" t="n">
-        <v>7562.539947775687</v>
+        <v>7527.802022339965</v>
       </c>
       <c r="I6" t="n">
-        <v>7562.539947775644</v>
+        <v>7527.802022339936</v>
       </c>
       <c r="J6" t="n">
-        <v>-206415.3494647774</v>
+        <v>-206450.0873902132</v>
       </c>
       <c r="K6" t="n">
-        <v>4067.298106753005</v>
+        <v>4032.56018131737</v>
       </c>
       <c r="L6" t="n">
-        <v>-19813.34781281627</v>
+        <v>-19813.34781281622</v>
       </c>
       <c r="M6" t="n">
-        <v>-85440.65775469644</v>
+        <v>-85440.65775469635</v>
       </c>
       <c r="N6" t="n">
-        <v>-385.6298191845854</v>
+        <v>-385.6298191844253</v>
       </c>
       <c r="O6" t="n">
         <v>-385.6298191845126</v>
       </c>
       <c r="P6" t="n">
-        <v>-385.6298191844835</v>
+        <v>-385.6298191845126</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209548</v>
+        <v>11.08225210209571</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="C4" t="n">
-        <v>13.5807164877632</v>
+        <v>13.58071648776308</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="K4" t="n">
-        <v>13.5807164877632</v>
+        <v>13.58071648776286</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="K4" t="n">
-        <v>13.5807164877632</v>
+        <v>13.58071648776308</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>15.84008022651568</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>35.14151935821002</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>51.33597558191474</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>37.73767401013734</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>202.7275490263187</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>32.82611519499977</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>75.90496054965094</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>61.2499791780993</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.179500941361766e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>489.3502824033309</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,16 +32078,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>270.97169333569</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>211.5147800288493</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,10 +32795,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N24" t="n">
-        <v>707.690770008913</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>548.8125296967492</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>369.1789913100002</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067258</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>567.7870775946155</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817591</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>422.1299181110996</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760394</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34787,7 +34787,7 @@
         <v>445.754440505687</v>
       </c>
       <c r="N3" t="n">
-        <v>500.0599759523412</v>
+        <v>472.1064209457217</v>
       </c>
       <c r="O3" t="n">
         <v>409.4409041150109</v>
@@ -34796,7 +34796,7 @@
         <v>309.0840727593488</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.1910865638649</v>
+        <v>184.1446415704849</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>347.2162484813126</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>132.4173135558158</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>77.5403726145191</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,10 +36443,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N24" t="n">
-        <v>576.3490579255797</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>414.838122282419</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980851</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>226.5827468655557</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37476,13 +37476,13 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236319862</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>425.1908331501712</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986646</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367786</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>283.5755383312254</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.8925903961653</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
